--- a/Basis/Excel Preço local Barreiras.xlsx
+++ b/Basis/Excel Preço local Barreiras.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\MeusProjetos\Analise-Sincronia-SeriesTemporais-Soja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\MeusProjetos\Analise-Sincronia-SeriesTemporais-Soja\Basis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCB197C-80D5-4687-A5D2-0EC2C2F3962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8CFA97-5B54-4B3A-9E11-9B287AF7247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2611"/>
+  <dimension ref="A1:E2620"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2598" workbookViewId="0">
-      <selection activeCell="B2610" sqref="B2610"/>
+      <selection activeCell="D2618" sqref="D2618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -434,7 +434,8 @@
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="10" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -21325,6 +21326,78 @@
       </c>
       <c r="B2611" s="3">
         <v>122.5</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2612" s="4">
+        <v>45482</v>
+      </c>
+      <c r="B2612" s="3">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2613" s="4">
+        <v>45483</v>
+      </c>
+      <c r="B2613" s="3">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2614" s="4">
+        <v>45484</v>
+      </c>
+      <c r="B2614" s="3">
+        <v>115.75</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2615" s="4">
+        <v>45485</v>
+      </c>
+      <c r="B2615" s="3">
+        <v>116.06</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2616" s="4">
+        <v>45488</v>
+      </c>
+      <c r="B2616" s="3">
+        <v>115.88</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2617" s="4">
+        <v>45489</v>
+      </c>
+      <c r="B2617" s="3">
+        <v>115.38</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2618" s="4">
+        <v>45490</v>
+      </c>
+      <c r="B2618" s="3">
+        <v>115.38</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2619" s="4">
+        <v>45491</v>
+      </c>
+      <c r="B2619" s="3">
+        <v>115.3</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2620" s="4">
+        <v>45492</v>
+      </c>
+      <c r="B2620" s="3">
+        <v>116.11</v>
       </c>
     </row>
   </sheetData>

--- a/Basis/Excel Preço local Barreiras.xlsx
+++ b/Basis/Excel Preço local Barreiras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\MeusProjetos\Analise-Sincronia-SeriesTemporais-Soja\Basis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8CFA97-5B54-4B3A-9E11-9B287AF7247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B64F724-19C1-4735-BAD7-4B4E82DAB8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2620"/>
+  <dimension ref="A1:E2650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2598" workbookViewId="0">
-      <selection activeCell="D2618" sqref="D2618"/>
+    <sheetView tabSelected="1" topLeftCell="A2608" workbookViewId="0">
+      <selection activeCell="C2618" sqref="C2618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -434,8 +434,7 @@
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="10" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -21398,6 +21397,246 @@
       </c>
       <c r="B2620" s="3">
         <v>116.11</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2621" s="4">
+        <v>45495</v>
+      </c>
+      <c r="B2621" s="3">
+        <v>117.43</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2622" s="4">
+        <v>45496</v>
+      </c>
+      <c r="B2622" s="3">
+        <v>119.33</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2623" s="4">
+        <v>45497</v>
+      </c>
+      <c r="B2623" s="3">
+        <v>120.75</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2624" s="4">
+        <v>45498</v>
+      </c>
+      <c r="B2624" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2625" s="4">
+        <v>45499</v>
+      </c>
+      <c r="B2625" s="3">
+        <v>121.63</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2626" s="4">
+        <v>45502</v>
+      </c>
+      <c r="B2626" s="3">
+        <v>123.13</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2627" s="4">
+        <v>45503</v>
+      </c>
+      <c r="B2627" s="3">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2628" s="4">
+        <v>45504</v>
+      </c>
+      <c r="B2628" s="3">
+        <v>120.28</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2629" s="4">
+        <v>45505</v>
+      </c>
+      <c r="B2629" s="3">
+        <v>118.88</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2630" s="4">
+        <v>45506</v>
+      </c>
+      <c r="B2630" s="3">
+        <v>118.88</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2631" s="4">
+        <v>45509</v>
+      </c>
+      <c r="B2631" s="3">
+        <v>118.88</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2632" s="4">
+        <v>45510</v>
+      </c>
+      <c r="B2632" s="3">
+        <v>120.63</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2633" s="4">
+        <v>45511</v>
+      </c>
+      <c r="B2633" s="3">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2634" s="4">
+        <v>45512</v>
+      </c>
+      <c r="B2634" s="3">
+        <v>119.75</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2635" s="4">
+        <v>45513</v>
+      </c>
+      <c r="B2635" s="3">
+        <v>118.25</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2636" s="4">
+        <v>45516</v>
+      </c>
+      <c r="B2636" s="3">
+        <v>116.88</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2637" s="4">
+        <v>45517</v>
+      </c>
+      <c r="B2637" s="3">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2638" s="4">
+        <v>45518</v>
+      </c>
+      <c r="B2638" s="3">
+        <v>110.75</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2639" s="4">
+        <v>45519</v>
+      </c>
+      <c r="B2639" s="3">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2640" s="4">
+        <v>45520</v>
+      </c>
+      <c r="B2640" s="3">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2641" s="4">
+        <v>45523</v>
+      </c>
+      <c r="B2641" s="3">
+        <v>108.38</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2642" s="4">
+        <v>45524</v>
+      </c>
+      <c r="B2642" s="3">
+        <v>109.25</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2643" s="4">
+        <v>45525</v>
+      </c>
+      <c r="B2643" s="3">
+        <v>109.25</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2644" s="4">
+        <v>45526</v>
+      </c>
+      <c r="B2644" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2645" s="4">
+        <v>45527</v>
+      </c>
+      <c r="B2645" s="3">
+        <v>114.13</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2646" s="4">
+        <v>45530</v>
+      </c>
+      <c r="B2646" s="3">
+        <v>114.88</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2647" s="4">
+        <v>45531</v>
+      </c>
+      <c r="B2647" s="3">
+        <v>114.63</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2648" s="4">
+        <v>45532</v>
+      </c>
+      <c r="B2648" s="3">
+        <v>116.88</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2649" s="4">
+        <v>45533</v>
+      </c>
+      <c r="B2649" s="3">
+        <v>117.63</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2650" s="4">
+        <v>45534</v>
+      </c>
+      <c r="B2650" s="3">
+        <v>119.63</v>
       </c>
     </row>
   </sheetData>
